--- a/_spreadsheet.xlsx
+++ b/_spreadsheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>key</t>
   </si>
@@ -190,13 +190,8 @@
     <t>Chaque ligne est un nouveau paragraphe</t>
   </si>
   <si>
-    <t>markup</t>
-  </si>
-  <si>
-    <t>_example-markup-file.html</t>
-  </si>
-  <si>
-    <t>if there is a _something.html file, then it will load the markup in the file, otherwise will treat as markup</t>
+    <t>&lt;blockquote&gt;« Ceci est une citation. Il faut juste changer le texte entre guillemets et l'auteur. »
+&lt;cite&gt;L'auteur de la citation&lt;/cite&gt;&lt;/blockquote&gt;</t>
   </si>
   <si>
     <t>ancre</t>
@@ -208,30 +203,26 @@
     <t>text_sidebar_1</t>
   </si>
   <si>
-    <t>&lt;div class="row"&gt;
-    &lt;div class="col-lg-10 col-lg-offset-1" style="border: 1px solid blue; margin-bottom: 2em"&gt;
-        hello. this is a markup section that comes directly from the Google spreadsheet
-    &lt;/div&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>test-subhead-id</t>
   </si>
   <si>
     <t>Ceci est un sous-titre</t>
   </si>
   <si>
-    <t>"Sed ut perspiciatis unde omnis iste natus error sit voluptatem accusantium doloremque laudantium, totam rem aperiam, eaque ipsa quae ab illo inventore veritatis et quasi architecto beatae vitae dicta sunt explicabo. Nemo enim ipsam voluptatem quia voluptas sit aspernatur aut odit aut fugit, sed quia consequuntur magni dolores eos qui ratione voluptatem sequi nesciunt. Neque porro quisquam est, qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit, sed quia non numquam eius modi tempora incidunt ut labore et dolore magnam aliquam quaerat voluptatem. Ut enim ad minima veniam, quis nostrum exercitationem ullam corporis suscipit laboriosam, nisi ut aliquid ex ea commodi consequatur? Quis autem vel eum iure reprehenderit qui in ea voluptate velit esse quam nihil molestiae consequatur, vel illum qui dolorem eum fugiat quo voluptas nulla pariatur?"</t>
+    <t>Sed ut perspiciatis unde omnis iste natus error sit voluptatem accusantium doloremque laudantium, totam rem aperiam, eaque ipsa quae ab illo inventore veritatis et quasi architecto beatae vitae dicta sunt explicabo. Nemo enim ipsam voluptatem quia voluptas sit aspernatur aut odit aut fugit, sed quia consequuntur magni dolores eos qui ratione voluptatem sequi nesciunt. Neque porro quisquam est, qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit, sed quia non numquam eius modi tempora incidunt ut labore et dolore magnam aliquam quaerat voluptatem. Ut enim ad minima veniam, quis nostrum exercitationem ullam corporis suscipit laboriosam, nisi ut aliquid ex ea commodi consequatur? Quis autem vel eum iure reprehenderit qui in ea voluptate velit esse quam nihil molestiae consequatur, vel illum qui dolorem eum fugiat quo voluptas nulla pariatur?</t>
   </si>
   <si>
     <t>markup_sidebar_1</t>
   </si>
   <si>
-    <t>&lt;blockquote&gt;« Ceci est une citation. Il faut juste changer le texte entre guillemets et l'auteur. »
-&lt;cite&gt;L'auteur de la citation&lt;/cite&gt;&lt;/blockquote&gt;</t>
+    <t>markup</t>
   </si>
   <si>
-    <t>Sed ut perspiciatis unde omnis iste natus error sit voluptatem accusantium doloremque laudantium, totam rem aperiam, eaque ipsa quae ab illo inventore veritatis et quasi architecto beatae vitae dicta sunt explicabo. Nemo enim ipsam voluptatem quia voluptas sit aspernatur aut odit aut fugit, sed quia consequuntur magni dolores eos qui ratione voluptatem sequi nesciunt. Neque porro quisquam est, qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit, sed quia non numquam eius modi tempora incidunt ut labore et dolore magnam aliquam quaerat voluptatem. Ut enim ad minima veniam, quis nostrum exercitationem ullam corporis suscipit laboriosam, nisi ut aliquid ex ea commodi consequatur? Quis autem vel eum iure reprehenderit qui in ea voluptate velit esse quam nihil molestiae consequatur, vel illum qui dolorem eum fugiat quo voluptas nulla pariatur?</t>
+    <t>&lt;div class="row"&gt;
+    &lt;div class="col-lg-10 col-lg-offset-1" style="border: 1px solid #F6F5EB; margin-bottom: 2em"&gt;
+        On peut créer des sous-sections, par exemple pour appeler des applications externes.
+    &lt;/div&gt;
+&lt;/div&gt;</t>
   </si>
   <si>
     <t>image</t>
@@ -247,6 +238,12 @@
   </si>
   <si>
     <t>image_sidebar_1</t>
+  </si>
+  <si>
+    <t>_example-markup-file.html</t>
+  </si>
+  <si>
+    <t>if there is a _something.html file, then it will load the markup in the file, otherwise will treat as markup</t>
   </si>
   <si>
     <t>test_text_sidebar_id</t>
@@ -611,12 +608,6 @@
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -624,6 +615,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -23994,17 +23991,15 @@
       <c r="F2" s="15"/>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="34" t="s">
-        <v>59</v>
-      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4">
@@ -24012,114 +24007,116 @@
         <v>54</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="C5" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="18" t="s">
-        <v>57</v>
+      <c r="D5" s="32"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="18" t="s">
+        <v>54</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="34"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="36" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="18" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="39" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="34"/>
       <c r="F11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="34"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="15"/>
     </row>
     <row r="13">
@@ -24127,7 +24124,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="18"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="34"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="15"/>
     </row>
     <row r="14">
@@ -24135,7 +24132,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="18"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="34"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="15"/>
     </row>
     <row r="15">
@@ -24143,7 +24140,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="18"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="34"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="15"/>
     </row>
     <row r="16">
@@ -24151,7 +24148,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="18"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="34"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="15"/>
     </row>
     <row r="17">
@@ -24159,7 +24156,7 @@
       <c r="B17" s="15"/>
       <c r="C17" s="18"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="34"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="15"/>
     </row>
     <row r="18">
@@ -24167,7 +24164,7 @@
       <c r="B18" s="15"/>
       <c r="C18" s="18"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="34"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="15"/>
     </row>
     <row r="19">
@@ -24175,7 +24172,7 @@
       <c r="B19" s="15"/>
       <c r="C19" s="18"/>
       <c r="D19" s="32"/>
-      <c r="E19" s="34"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="15"/>
     </row>
     <row r="20">
@@ -24183,7 +24180,7 @@
       <c r="B20" s="15"/>
       <c r="C20" s="18"/>
       <c r="D20" s="32"/>
-      <c r="E20" s="34"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="15"/>
     </row>
     <row r="21">
@@ -24191,7 +24188,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="18"/>
       <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="15"/>
     </row>
     <row r="22">
@@ -24199,7 +24196,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="18"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="34"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23">
@@ -24207,7 +24204,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="18"/>
       <c r="D23" s="32"/>
-      <c r="E23" s="34"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="15"/>
     </row>
     <row r="24">
@@ -32084,46 +32081,46 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>76</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="15"/>
@@ -40122,22 +40119,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>2</v>
@@ -40146,13 +40143,13 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>25</v>
@@ -40160,19 +40157,19 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>25</v>
@@ -40180,25 +40177,25 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -40206,20 +40203,20 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="44" t="str">
         <f>HYPERLINK("http://vignette4.wikia.nocookie.net/mixels/images/b/bd/Nyan_cat_image.png","http://vignette4.wikia.nocookie.net/mixels/images/b/bd/Nyan_cat_image.png")</f>
         <v>http://vignette4.wikia.nocookie.net/mixels/images/b/bd/Nyan_cat_image.png</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -50204,22 +50201,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="46" t="s">
         <v>2</v>
@@ -50227,10 +50224,10 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="47" t="str">
@@ -50242,41 +50239,41 @@
         <v>https://www.facebook.com/TheOfficialGrumpyCat</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="33" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="47"/>
       <c r="E3" s="48"/>
       <c r="F3" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="47"/>
       <c r="E4" s="48"/>
       <c r="F4" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5">
       <c r="A5" s="18"/>
@@ -50285,7 +50282,7 @@
       <c r="D5" s="47"/>
       <c r="E5" s="48"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6">
       <c r="A6" s="15"/>
@@ -50294,7 +50291,7 @@
       <c r="D6" s="32"/>
       <c r="E6" s="48"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="34"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7">
       <c r="A7" s="15"/>
@@ -50303,7 +50300,7 @@
       <c r="D7" s="32"/>
       <c r="E7" s="48"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="34"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8">
       <c r="A8" s="15"/>
@@ -50312,7 +50309,7 @@
       <c r="D8" s="32"/>
       <c r="E8" s="48"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9">
       <c r="A9" s="15"/>
@@ -50321,7 +50318,7 @@
       <c r="D9" s="32"/>
       <c r="E9" s="48"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="34"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10">
       <c r="A10" s="15"/>
@@ -50330,7 +50327,7 @@
       <c r="D10" s="32"/>
       <c r="E10" s="48"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11">
       <c r="A11" s="15"/>
@@ -50339,7 +50336,7 @@
       <c r="D11" s="32"/>
       <c r="E11" s="48"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="34"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12">
       <c r="A12" s="15"/>
@@ -50348,7 +50345,7 @@
       <c r="D12" s="32"/>
       <c r="E12" s="48"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13">
       <c r="A13" s="15"/>
@@ -50357,7 +50354,7 @@
       <c r="D13" s="32"/>
       <c r="E13" s="48"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="34"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14">
       <c r="A14" s="15"/>
@@ -50366,7 +50363,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="48"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15">
       <c r="A15" s="15"/>
@@ -50375,7 +50372,7 @@
       <c r="D15" s="32"/>
       <c r="E15" s="48"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="34"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16">
       <c r="A16" s="15"/>
@@ -50384,7 +50381,7 @@
       <c r="D16" s="32"/>
       <c r="E16" s="48"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17">
       <c r="A17" s="15"/>
@@ -50393,7 +50390,7 @@
       <c r="D17" s="32"/>
       <c r="E17" s="48"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18">
       <c r="A18" s="15"/>
@@ -50402,7 +50399,7 @@
       <c r="D18" s="32"/>
       <c r="E18" s="48"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19">
       <c r="A19" s="15"/>
@@ -50411,7 +50408,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="48"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="34"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20">
       <c r="A20" s="15"/>
@@ -50420,7 +50417,7 @@
       <c r="D20" s="32"/>
       <c r="E20" s="48"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21">
       <c r="A21" s="15"/>
@@ -50429,7 +50426,7 @@
       <c r="D21" s="32"/>
       <c r="E21" s="48"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="34"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22">
       <c r="A22" s="15"/>

--- a/_spreadsheet.xlsx
+++ b/_spreadsheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
   <si>
     <t>key</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>chartbeat_domain</t>
+  </si>
+  <si>
+    <t>ledevoir.com</t>
   </si>
   <si>
     <t>Domaine pour Chartbeat</t>
@@ -355,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -391,12 +394,6 @@
     <font>
       <sz val="15.0"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -552,14 +549,17 @@
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
@@ -567,14 +567,23 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
@@ -585,67 +594,55 @@
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +840,9 @@
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="14">
+        <v>63518.0</v>
+      </c>
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
@@ -855,9 +854,11 @@
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -8824,8 +8825,9 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B6"/>
     <hyperlink r:id="rId2" ref="B8"/>
+    <hyperlink r:id="rId3" ref="B11"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -8861,10 +8863,10 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="15"/>
@@ -8873,10 +8875,10 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="15"/>
@@ -8885,10 +8887,10 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="15"/>
@@ -8913,14 +8915,14 @@
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="22" t="str">
         <f>HYPERLINK("http://www.ledevoir.com/documents/special/haiti","http://www.ledevoir.com/documents/special/haiti")</f>
         <v>http://www.ledevoir.com/documents/special/haiti</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -8928,11 +8930,11 @@
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -8940,13 +8942,13 @@
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="25">
         <v>1800.0</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -8954,13 +8956,13 @@
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="25">
         <v>1200.0</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -8968,11 +8970,11 @@
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -8980,10 +8982,10 @@
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="24"/>
@@ -8992,11 +8994,11 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -16921,10 +16923,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>2</v>
@@ -16934,10 +16936,10 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -16945,13 +16947,13 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -23960,16 +23962,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>2</v>
@@ -23978,25 +23980,25 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="37"/>
@@ -24004,29 +24006,29 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="15"/>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="37"/>
@@ -24034,25 +24036,25 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="37"/>
@@ -24060,11 +24062,11 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="37"/>
@@ -24072,43 +24074,43 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="15"/>
     </row>
@@ -32063,13 +32065,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>1</v>
@@ -32081,46 +32083,46 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="15"/>
@@ -40119,22 +40121,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>2</v>
@@ -40143,59 +40145,59 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" s="15"/>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -40203,20 +40205,20 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="44" t="str">
         <f>HYPERLINK("http://vignette4.wikia.nocookie.net/mixels/images/b/bd/Nyan_cat_image.png","http://vignette4.wikia.nocookie.net/mixels/images/b/bd/Nyan_cat_image.png")</f>
         <v>http://vignette4.wikia.nocookie.net/mixels/images/b/bd/Nyan_cat_image.png</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -50201,22 +50203,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="46" t="s">
         <v>2</v>
@@ -50224,10 +50226,10 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="47" t="str">
@@ -50239,39 +50241,39 @@
         <v>https://www.facebook.com/TheOfficialGrumpyCat</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="47"/>
       <c r="E3" s="48"/>
       <c r="F3" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G3" s="37"/>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="47"/>
       <c r="E4" s="48"/>
       <c r="F4" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G4" s="37"/>
     </row>
